--- a/Documentation/Modes/FunctionalityTable.xlsx
+++ b/Documentation/Modes/FunctionalityTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorgealejandro\Documents\Proyectos\MIDI_Sequencer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorgealejandro\Documents\Proyectos\AbletonSurfaceController\Documentation\Modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C54D2F-8752-413E-A40B-CA6218352830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24B3651-E354-47E1-A55A-9CE896C7616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{C3C32465-9D8B-4CA8-A957-E0216A8A4383}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="73">
   <si>
     <t>Modes</t>
   </si>
@@ -715,13 +715,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77EF20C-1C99-4A42-A4CF-181647485761}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,10 +1136,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1508,10 +1508,10 @@
       <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1558,8 +1558,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1590,8 +1590,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1632,8 +1632,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1672,8 +1672,8 @@
       <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="12" t="s">
         <v>10</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="44" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="42" t="s">
@@ -1742,7 +1742,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="42"/>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1770,7 +1770,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="42"/>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1802,8 +1802,12 @@
       <c r="L20" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="11"/>
+      <c r="M20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="O20" s="11" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1816,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="42"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -1838,13 +1842,17 @@
       <c r="L21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="11"/>
+      <c r="M21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="O21" s="11"/>
       <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="42"/>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1864,7 +1872,7 @@
       <c r="P22" s="22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="42" t="s">
         <v>29</v>
       </c>
@@ -1908,7 +1916,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="42"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -1936,7 +1944,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="42"/>
       <c r="C25" s="2" t="s">
         <v>7</v>
@@ -1968,8 +1976,12 @@
       <c r="L25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="11"/>
+      <c r="M25" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="O25" s="11" t="s">
         <v>10</v>
       </c>
@@ -1978,7 +1990,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="42"/>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -2004,13 +2016,17 @@
       <c r="L26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="11"/>
+      <c r="M26" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="42"/>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -2031,6 +2047,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
@@ -2038,11 +2059,6 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
